--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,105 +46,96 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>ripped</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>probably</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>tiny</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>fell</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
@@ -154,105 +145,108 @@
     <t>bad</t>
   </si>
   <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>sound</t>
+    <t>hard</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>bit</t>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>fit</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>back</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
     <t>look</t>
   </si>
   <si>
-    <t>used</t>
+    <t>need</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>two</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -271,9 +265,6 @@
     <t>amazing</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -298,31 +289,37 @@
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>best</t>
+    <t>friends</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>positive</t>
@@ -683,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,10 +688,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -752,13 +749,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -770,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K3">
-        <v>0.8571428571428571</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -794,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -802,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -820,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K4">
-        <v>0.8153846153846154</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -844,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -852,13 +849,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.765625</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -873,7 +870,7 @@
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K5">
         <v>0.7777777777777778</v>
@@ -902,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7311827956989247</v>
+        <v>0.765625</v>
       </c>
       <c r="C6">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -920,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K6">
-        <v>0.75</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -944,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -952,13 +949,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7184466019417476</v>
+        <v>0.7475728155339806</v>
       </c>
       <c r="C7">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D7">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -970,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K7">
-        <v>0.7204301075268817</v>
+        <v>0.625</v>
       </c>
       <c r="L7">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -994,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1002,13 +999,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7183098591549296</v>
+        <v>0.7473118279569892</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1020,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K8">
-        <v>0.625</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1044,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1052,13 +1049,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7105263157894737</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1070,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K9">
-        <v>0.6037735849056604</v>
+        <v>0.53125</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1094,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1102,13 +1099,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6896551724137931</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1120,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K10">
-        <v>0.578125</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1144,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1152,13 +1149,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6666666666666666</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1170,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K11">
-        <v>0.4927536231884058</v>
+        <v>0.3795081967213115</v>
       </c>
       <c r="L11">
-        <v>34</v>
+        <v>463</v>
       </c>
       <c r="M11">
-        <v>34</v>
+        <v>463</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1194,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>35</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1202,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6554054054054054</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C12">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1220,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K12">
-        <v>0.3672131147540983</v>
+        <v>0.3486370157819225</v>
       </c>
       <c r="L12">
-        <v>448</v>
+        <v>243</v>
       </c>
       <c r="M12">
-        <v>448</v>
+        <v>243</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1244,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>772</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1252,13 +1249,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1270,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K13">
-        <v>0.3362068965517241</v>
+        <v>0.3112033195020747</v>
       </c>
       <c r="L13">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="M13">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1291,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>462</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1302,13 +1299,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5630252100840336</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1320,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K14">
-        <v>0.3070539419087137</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="L14">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="M14">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1344,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>334</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1352,13 +1349,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5555555555555556</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1370,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K15">
-        <v>0.2349397590361446</v>
+        <v>0.2409638554216867</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1394,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1402,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5428571428571428</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1420,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K16">
-        <v>0.2333333333333333</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1444,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1452,13 +1449,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5263157894736842</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1470,19 +1467,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K17">
-        <v>0.2232415902140673</v>
+        <v>0.1865443425076453</v>
       </c>
       <c r="L17">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="M17">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1494,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1502,37 +1499,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5238095238095238</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>22</v>
       </c>
-      <c r="D18">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>20</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K18">
-        <v>0.1851851851851852</v>
+        <v>0.1244979919678715</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1544,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>154</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1552,13 +1549,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5185185185185185</v>
+        <v>0.518840579710145</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1570,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K19">
-        <v>0.125</v>
+        <v>0.1188811188811189</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1594,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1602,49 +1599,49 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5180722891566265</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>43</v>
       </c>
-      <c r="D20">
-        <v>43</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>40</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K20">
-        <v>0.1004016064257028</v>
+        <v>0.1087719298245614</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>224</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1652,13 +1649,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5111111111111111</v>
+        <v>0.4645669291338583</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1670,31 +1667,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K21">
-        <v>0.09640666082383874</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="L21">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>1031</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1702,13 +1699,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4985507246376812</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="C22">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="D22">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1720,31 +1717,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K22">
-        <v>0.05519480519480519</v>
+        <v>0.07003891050583658</v>
       </c>
       <c r="L22">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="M22">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1455</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1752,13 +1749,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4857142857142857</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1770,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K23">
         <v>0.05013927576601671</v>
@@ -1802,13 +1799,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4761904761904762</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1820,7 +1817,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24">
+        <v>0.04935064935064935</v>
+      </c>
+      <c r="L24">
+        <v>76</v>
+      </c>
+      <c r="M24">
+        <v>77</v>
+      </c>
+      <c r="N24">
+        <v>0.99</v>
+      </c>
+      <c r="O24">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1464</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1828,13 +1849,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4330708661417323</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C25">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1846,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1854,13 +1875,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4081632653061225</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1872,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1880,13 +1901,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3707865168539326</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1898,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1906,13 +1927,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3514851485148515</v>
+        <v>0.3671875</v>
       </c>
       <c r="C28">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D28">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1924,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>131</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1932,13 +1953,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3473684210526316</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1950,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>62</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1958,13 +1979,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.34375</v>
+        <v>0.3364928909952606</v>
       </c>
       <c r="C30">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D30">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1976,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>84</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1984,13 +2005,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.34375</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2002,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2010,13 +2031,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3333333333333333</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2028,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2036,13 +2057,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3333333333333333</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2054,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2062,13 +2083,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3272727272727273</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2080,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2088,13 +2109,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3222748815165877</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C35">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2106,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>143</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2114,13 +2135,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3114754098360656</v>
+        <v>0.2905982905982906</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2132,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>42</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2140,7 +2161,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="C37">
         <v>18</v>
@@ -2158,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2166,13 +2187,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2777777777777778</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2184,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2192,13 +2213,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.264957264957265</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C39">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D39">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2210,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>86</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2218,13 +2239,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2537313432835821</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2236,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2244,13 +2265,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2525773195876289</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="C41">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2262,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>145</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2270,13 +2291,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2307692307692308</v>
+        <v>0.2164948453608248</v>
       </c>
       <c r="C42">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2288,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>60</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2296,13 +2317,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2173913043478261</v>
+        <v>0.215</v>
       </c>
       <c r="C43">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D43">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2314,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>216</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2322,13 +2343,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2173913043478261</v>
+        <v>0.2120253164556962</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2340,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>54</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2348,13 +2369,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2151898734177215</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C45">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="D45">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2366,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>248</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2374,13 +2395,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2040816326530612</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2392,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>78</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2400,13 +2421,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2032640949554896</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="C47">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="D47">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2418,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>537</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2426,13 +2447,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2027027027027027</v>
+        <v>0.1810089020771513</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2444,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>59</v>
+        <v>552</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2452,13 +2473,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.19</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C49">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D49">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2470,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>162</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2478,13 +2499,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.180379746835443</v>
+        <v>0.1656050955414013</v>
       </c>
       <c r="C50">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D50">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2496,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>259</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2504,13 +2525,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.178343949044586</v>
+        <v>0.1585903083700441</v>
       </c>
       <c r="C51">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D51">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2522,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>129</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2530,13 +2551,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1779661016949153</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C52">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2548,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>97</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2556,13 +2577,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1563876651982379</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C53">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D53">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2574,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>383</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2582,13 +2603,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1551724137931035</v>
+        <v>0.1408045977011494</v>
       </c>
       <c r="C54">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D54">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2600,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2608,13 +2629,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1495327102803738</v>
+        <v>0.140625</v>
       </c>
       <c r="C55">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2626,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>182</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2634,13 +2655,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1388888888888889</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2652,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2660,25 +2681,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1357142857142857</v>
+        <v>0.1376518218623482</v>
       </c>
       <c r="C57">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D57">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>121</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2686,13 +2707,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1328125</v>
+        <v>0.1361256544502618</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D58">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2704,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>111</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2712,13 +2733,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1314285714285714</v>
+        <v>0.1048689138576779</v>
       </c>
       <c r="C59">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D59">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2730,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>152</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2738,13 +2759,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1302083333333333</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="C60">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2756,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2764,25 +2785,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1256544502617801</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="C61">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D61">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2790,13 +2811,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1169354838709677</v>
+        <v>0.09315068493150686</v>
       </c>
       <c r="C62">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D62">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2808,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>219</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2816,13 +2837,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1123595505617977</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D63">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2834,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>237</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2842,25 +2863,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1117021276595745</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="C64">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D64">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E64">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2868,13 +2889,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1038251366120219</v>
+        <v>0.08685968819599109</v>
       </c>
       <c r="C65">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2886,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>164</v>
+        <v>410</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2894,13 +2915,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1013698630136986</v>
+        <v>0.078125</v>
       </c>
       <c r="C66">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D66">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2912,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>328</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2920,13 +2941,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.09183673469387756</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="C67">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D67">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2938,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>178</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2946,25 +2967,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08243727598566308</v>
+        <v>0.06919275123558484</v>
       </c>
       <c r="C68">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D68">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E68">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F68">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>256</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2972,25 +2993,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06919275123558484</v>
+        <v>0.06785714285714285</v>
       </c>
       <c r="C69">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D69">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E69">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>565</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2998,25 +3019,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.06711409395973154</v>
+        <v>0.06012658227848101</v>
       </c>
       <c r="C70">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D70">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E70">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F70">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>417</v>
+        <v>297</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3024,25 +3045,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06645569620253164</v>
+        <v>0.05336426914153132</v>
       </c>
       <c r="C71">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D71">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E71">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="F71">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>295</v>
+        <v>408</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3050,25 +3071,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.05568445475638051</v>
+        <v>0.04689480354879594</v>
       </c>
       <c r="C72">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D72">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E72">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F72">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>407</v>
+        <v>752</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3076,77 +3097,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.04507042253521127</v>
+        <v>0.03828483920367534</v>
       </c>
       <c r="C73">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D73">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74">
-        <v>0.0379746835443038</v>
-      </c>
-      <c r="C74">
-        <v>30</v>
-      </c>
-      <c r="D74">
-        <v>34</v>
-      </c>
-      <c r="E74">
-        <v>0.12</v>
-      </c>
-      <c r="F74">
-        <v>0.88</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75">
-        <v>0.03062787136294028</v>
-      </c>
-      <c r="C75">
-        <v>20</v>
-      </c>
-      <c r="D75">
-        <v>22</v>
-      </c>
-      <c r="E75">
-        <v>0.09</v>
-      </c>
-      <c r="F75">
-        <v>0.91</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
